--- a/data/renewables_cagr.xlsx
+++ b/data/renewables_cagr.xlsx
@@ -469,49 +469,49 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Wind</t>
+          <t>Hydro</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.981007756468905</v>
+        <v>1.248976476713115</v>
       </c>
       <c r="C3" t="n">
-        <v>1715.527</v>
+        <v>1122.23</v>
       </c>
       <c r="D3" t="n">
-        <v>2936.4945</v>
+        <v>1224.0985</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Utility-scale Solar</t>
+          <t>Biomass</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>54.75281499684422</v>
+        <v>18.48297686997073</v>
       </c>
       <c r="C4" t="n">
-        <v>134.704</v>
+        <v>12.3745</v>
       </c>
       <c r="D4" t="n">
-        <v>2863.1915</v>
+        <v>40.562</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Hydro</t>
+          <t>Wind</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.248976476713115</v>
+        <v>7.981007756468905</v>
       </c>
       <c r="C5" t="n">
-        <v>1122.23</v>
+        <v>1715.527</v>
       </c>
       <c r="D5" t="n">
-        <v>1224.0985</v>
+        <v>2936.4945</v>
       </c>
     </row>
     <row r="6">
@@ -533,17 +533,17 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Biomass</t>
+          <t>Utility-scale Solar</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18.48297686997073</v>
+        <v>54.75281499684422</v>
       </c>
       <c r="C7" t="n">
-        <v>12.3745</v>
+        <v>134.704</v>
       </c>
       <c r="D7" t="n">
-        <v>40.562</v>
+        <v>2863.1915</v>
       </c>
     </row>
   </sheetData>
